--- a/public/data/current_graduates.xlsx
+++ b/public/data/current_graduates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -33,9 +33,6 @@
     <t>MAJOR</t>
   </si>
   <si>
-    <t>BACKGROUND</t>
-  </si>
-  <si>
     <t>LINKEDIN</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Rahul Nagireddi</t>
   </si>
   <si>
-    <t>GRA</t>
-  </si>
-  <si>
     <t>Nischita Sapananda</t>
   </si>
   <si>
@@ -121,6 +115,27 @@
   </si>
   <si>
     <t>img/graduates/2021/eldho.jpg</t>
+  </si>
+  <si>
+    <t>Graduate Research Assistant</t>
+  </si>
+  <si>
+    <t>Portfolio Web</t>
+  </si>
+  <si>
+    <t>https://www.eldhojv.com/</t>
+  </si>
+  <si>
+    <t>https://donpparayil.web.app/</t>
+  </si>
+  <si>
+    <t>Porftfolio text</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>Background</t>
   </si>
 </sst>
 </file>
@@ -177,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -185,6 +200,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -401,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I995"/>
+  <dimension ref="A1:J995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -417,11 +433,11 @@
     <col min="6" max="6" width="53" customWidth="1"/>
     <col min="7" max="7" width="34.44140625" customWidth="1"/>
     <col min="8" max="8" width="22.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
     <col min="10" max="26" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,205 +451,224 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1624,8 +1659,10 @@
     <hyperlink ref="F6" r:id="rId7"/>
     <hyperlink ref="F7" r:id="rId8"/>
     <hyperlink ref="F8" r:id="rId9"/>
+    <hyperlink ref="I4" r:id="rId10"/>
+    <hyperlink ref="I3" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId10"/>
+  <pageSetup orientation="landscape" r:id="rId12"/>
 </worksheet>
 </file>